--- a/ejercicios/4 de Octubre.xlsx
+++ b/ejercicios/4 de Octubre.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FP\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FP\Desktop\bigdata\ejercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651744E0-C745-4BE8-A576-1364D90A6761}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FFCBC3-1C35-4DB6-8EC9-2AF9BAE81CD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio contar" sheetId="2" r:id="rId1"/>
@@ -1246,7 +1246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
@@ -1309,7 +1309,7 @@
         <v>457</v>
       </c>
       <c r="F7" s="6">
-        <f>$F$5*INGRESOS_2017</f>
+        <f t="shared" ref="F7:F19" si="0">$F$5*INGRESOS_2017</f>
         <v>95.97</v>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
         <v>2548</v>
       </c>
       <c r="F8" s="6">
-        <f>$F$5*INGRESOS_2017</f>
+        <f t="shared" si="0"/>
         <v>535.07999999999993</v>
       </c>
       <c r="H8" s="24" t="s">
@@ -1360,26 +1360,26 @@
         <v>2555</v>
       </c>
       <c r="F9" s="6">
-        <f>$F$5*INGRESOS_2017</f>
+        <f t="shared" si="0"/>
         <v>536.54999999999995</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>3</v>
       </c>
       <c r="I9" s="23">
-        <f>SUMIFS(INGRESOS_2017,$B$7:$B$19, $H9, $D$7:$D$19,I$8)</f>
+        <f t="shared" ref="I9:L13" si="1">SUMIFS(INGRESOS_2017,$B$7:$B$19, $H9, $D$7:$D$19,I$8)</f>
         <v>0</v>
       </c>
       <c r="J9" s="23">
-        <f>SUMIFS(INGRESOS_2017,$B$7:$B$19, $H9, $D$7:$D$19,J$8)</f>
+        <f t="shared" si="1"/>
         <v>457</v>
       </c>
       <c r="K9" s="23">
-        <f>SUMIFS(INGRESOS_2017,$B$7:$B$19, $H9, $D$7:$D$19,K$8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L9" s="23">
-        <f>SUMIFS(INGRESOS_2017,$B$7:$B$19, $H9, $D$7:$D$19,L$8)</f>
+        <f t="shared" si="1"/>
         <v>3659</v>
       </c>
     </row>
@@ -1397,26 +1397,26 @@
         <v>15000</v>
       </c>
       <c r="F10" s="6">
-        <f>$F$5*INGRESOS_2017</f>
+        <f t="shared" si="0"/>
         <v>3150</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I10" s="23">
-        <f>SUMIFS(INGRESOS_2017,$B$7:$B$19, $H10, $D$7:$D$19,I$8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J10" s="23">
-        <f>SUMIFS(INGRESOS_2017,$B$7:$B$19, $H10, $D$7:$D$19,J$8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K10" s="23">
-        <f>SUMIFS(INGRESOS_2017,$B$7:$B$19, $H10, $D$7:$D$19,K$8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L10" s="23">
-        <f>SUMIFS(INGRESOS_2017,$B$7:$B$19, $H10, $D$7:$D$19,L$8)</f>
+        <f t="shared" si="1"/>
         <v>1254</v>
       </c>
     </row>
@@ -1434,26 +1434,26 @@
         <v>2145</v>
       </c>
       <c r="F11" s="6">
-        <f>$F$5*INGRESOS_2017</f>
+        <f t="shared" si="0"/>
         <v>450.45</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>8</v>
       </c>
       <c r="I11" s="23">
-        <f>SUMIFS(INGRESOS_2017,$B$7:$B$19, $H11, $D$7:$D$19,I$8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J11" s="23">
-        <f>SUMIFS(INGRESOS_2017,$B$7:$B$19, $H11, $D$7:$D$19,J$8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K11" s="23">
-        <f>SUMIFS(INGRESOS_2017,$B$7:$B$19, $H11, $D$7:$D$19,K$8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L11" s="23">
-        <f>SUMIFS(INGRESOS_2017,$B$7:$B$19, $H11, $D$7:$D$19,L$8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1471,26 +1471,26 @@
         <v>15478</v>
       </c>
       <c r="F12" s="6">
-        <f>$F$5*INGRESOS_2017</f>
+        <f t="shared" si="0"/>
         <v>3250.3799999999997</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>10</v>
       </c>
       <c r="I12" s="23">
-        <f>SUMIFS(INGRESOS_2017,$B$7:$B$19, $H12, $D$7:$D$19,I$8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J12" s="23">
-        <f>SUMIFS(INGRESOS_2017,$B$7:$B$19, $H12, $D$7:$D$19,J$8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K12" s="23">
-        <f>SUMIFS(INGRESOS_2017,$B$7:$B$19, $H12, $D$7:$D$19,K$8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L12" s="23">
-        <f>SUMIFS(INGRESOS_2017,$B$7:$B$19, $H12, $D$7:$D$19,L$8)</f>
+        <f t="shared" si="1"/>
         <v>2569</v>
       </c>
     </row>
@@ -1508,26 +1508,26 @@
         <v>2548</v>
       </c>
       <c r="F13" s="6">
-        <f>$F$5*INGRESOS_2017</f>
+        <f t="shared" si="0"/>
         <v>535.07999999999993</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="I13" s="23">
-        <f>SUMIFS(INGRESOS_2017,$B$7:$B$19, $H13, $D$7:$D$19,I$8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J13" s="23">
-        <f>SUMIFS(INGRESOS_2017,$B$7:$B$19, $H13, $D$7:$D$19,J$8)</f>
+        <f t="shared" si="1"/>
         <v>112547</v>
       </c>
       <c r="K13" s="23">
-        <f>SUMIFS(INGRESOS_2017,$B$7:$B$19, $H13, $D$7:$D$19,K$8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L13" s="23">
-        <f>SUMIFS(INGRESOS_2017,$B$7:$B$19, $H13, $D$7:$D$19,L$8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
         <v>2569</v>
       </c>
       <c r="F14" s="6">
-        <f>$F$5*INGRESOS_2017</f>
+        <f t="shared" si="0"/>
         <v>539.49</v>
       </c>
     </row>
@@ -1563,7 +1563,7 @@
         <v>1254</v>
       </c>
       <c r="F15" s="6">
-        <f>$F$5*INGRESOS_2017</f>
+        <f t="shared" si="0"/>
         <v>263.33999999999997</v>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
         <v>3659</v>
       </c>
       <c r="F16" s="6">
-        <f>$F$5*INGRESOS_2017</f>
+        <f t="shared" si="0"/>
         <v>768.39</v>
       </c>
       <c r="H16" s="9" t="s">
@@ -1614,26 +1614,26 @@
         <v>457</v>
       </c>
       <c r="F17" s="6">
-        <f>$F$5*INGRESOS_2017</f>
+        <f t="shared" si="0"/>
         <v>95.97</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>3</v>
       </c>
       <c r="I17" s="23">
-        <f>SUMIFS(INGRESOS_2017,$B$7:$B$19,"=Laura Cañas", $D$7:$D$19,"=NORTE")</f>
+        <f t="shared" ref="I17:L21" si="2">SUMIFS(INGRESOS_2017,$B$7:$B$19,"=Laura Cañas", $D$7:$D$19,"=NORTE")</f>
         <v>0</v>
       </c>
       <c r="J17" s="23">
-        <f>SUMIFS(INGRESOS_2017,$B$7:$B$19,"=Laura Cañas", $D$7:$D$19,"=NORTE")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K17" s="23">
-        <f>SUMIFS(INGRESOS_2017,$B$7:$B$19,"=Laura Cañas", $D$7:$D$19,"=NORTE")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L17" s="23">
-        <f>SUMIFS(INGRESOS_2017,$B$7:$B$19,"=Laura Cañas", $D$7:$D$19,"=NORTE")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1651,26 +1651,26 @@
         <v>12547</v>
       </c>
       <c r="F18" s="6">
-        <f>$F$5*INGRESOS_2017</f>
+        <f t="shared" si="0"/>
         <v>2634.87</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I18" s="23">
-        <f>SUMIFS(INGRESOS_2017,$B$7:$B$19,"=Laura Cañas", $D$7:$D$19,"=NORTE")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J18" s="23">
-        <f>SUMIFS(INGRESOS_2017,$B$7:$B$19,"=Laura Cañas", $D$7:$D$19,"=NORTE")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K18" s="23">
-        <f>SUMIFS(INGRESOS_2017,$B$7:$B$19,"=Laura Cañas", $D$7:$D$19,"=NORTE")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L18" s="23">
-        <f>SUMIFS(INGRESOS_2017,$B$7:$B$19,"=Laura Cañas", $D$7:$D$19,"=NORTE")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1688,26 +1688,26 @@
         <v>100000</v>
       </c>
       <c r="F19" s="6">
-        <f>$F$5*INGRESOS_2017</f>
+        <f t="shared" si="0"/>
         <v>21000</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>8</v>
       </c>
       <c r="I19" s="23">
-        <f>SUMIFS(INGRESOS_2017,$B$7:$B$19,"=Laura Cañas", $D$7:$D$19,"=NORTE")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J19" s="23">
-        <f>SUMIFS(INGRESOS_2017,$B$7:$B$19,"=Laura Cañas", $D$7:$D$19,"=NORTE")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K19" s="23">
-        <f>SUMIFS(INGRESOS_2017,$B$7:$B$19,"=Laura Cañas", $D$7:$D$19,"=NORTE")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L19" s="23">
-        <f>SUMIFS(INGRESOS_2017,$B$7:$B$19,"=Laura Cañas", $D$7:$D$19,"=NORTE")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1716,19 +1716,19 @@
         <v>10</v>
       </c>
       <c r="I20" s="23">
-        <f>SUMIFS(INGRESOS_2017,$B$7:$B$19,"=Laura Cañas", $D$7:$D$19,"=NORTE")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J20" s="23">
-        <f>SUMIFS(INGRESOS_2017,$B$7:$B$19,"=Laura Cañas", $D$7:$D$19,"=NORTE")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K20" s="23">
-        <f>SUMIFS(INGRESOS_2017,$B$7:$B$19,"=Laura Cañas", $D$7:$D$19,"=NORTE")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L20" s="23">
-        <f>SUMIFS(INGRESOS_2017,$B$7:$B$19,"=Laura Cañas", $D$7:$D$19,"=NORTE")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1737,19 +1737,19 @@
         <v>13</v>
       </c>
       <c r="I21" s="23">
-        <f>SUMIFS(INGRESOS_2017,$B$7:$B$19,"=Laura Cañas", $D$7:$D$19,"=NORTE")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J21" s="23">
-        <f>SUMIFS(INGRESOS_2017,$B$7:$B$19,"=Laura Cañas", $D$7:$D$19,"=NORTE")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K21" s="23">
-        <f>SUMIFS(INGRESOS_2017,$B$7:$B$19,"=Laura Cañas", $D$7:$D$19,"=NORTE")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L21" s="23">
-        <f>SUMIFS(INGRESOS_2017,$B$7:$B$19,"=Laura Cañas", $D$7:$D$19,"=NORTE")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1797,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A62B5E-0967-4392-908E-F8E8E84F3134}">
   <dimension ref="B2:M8"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
